--- a/Assets/ExcelDatas/SkillUpgrade.xlsx
+++ b/Assets/ExcelDatas/SkillUpgrade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBFA79-6D16-470F-B9B1-6591A44C899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E517A200-7DD9-4870-91CB-41AB646D9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -16,26 +16,17 @@
     <sheet name="Define" sheetId="6" r:id="rId1"/>
     <sheet name="SkillUpgradeTable" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,26 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기의 이름이 들어가는 주석입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름을 스트링테이블에서 가져옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 데미지 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 공격 속도입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 사거리 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체의 스피드 입니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,12 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열6</t>
-  </si>
-  <si>
-    <t>열7</t>
-  </si>
-  <si>
     <t>Img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%1주문력을 %2 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%1의 주문시전 속도를 %2 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackSpeedControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,7 +137,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤 무기의 사거리를 강화합니다</t>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 이름이 들어가는 주석입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 이름을 스트링테이블에서 가져옵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 데미지 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 공격 속도입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 사거리 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 투사체 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사선 투사체 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 주문력을 {1}% 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 스킬이 몬스터를 한 명 더 관통할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사거리가 {1} 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저격수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보충학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충만한마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 주문이 더 커집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정면승부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 시전 속도를 {1}% 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 향해 {0}% 더 빠르게 날아갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원기옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPassControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackScaleControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속도로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흩뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StraitAttackPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiagonalAttackPlus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,27 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -319,23 +356,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -467,18 +492,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Img" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="열6" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="열7" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G11" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Img" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -784,7 +807,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -806,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -814,13 +837,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -831,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -845,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -859,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -873,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -887,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -901,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -918,14 +941,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.59765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
@@ -959,25 +982,19 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -986,12 +1003,6 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1000,127 +1011,182 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>10004</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>10005</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>10006</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10007</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10008</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>10009</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">

--- a/Assets/ExcelDatas/SkillUpgrade.xlsx
+++ b/Assets/ExcelDatas/SkillUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E517A200-7DD9-4870-91CB-41AB646D9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CA116-50A0-4F33-951E-E11BA62C2C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>DiagonalAttackPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +945,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -962,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>

--- a/Assets/ExcelDatas/SkillUpgrade.xlsx
+++ b/Assets/ExcelDatas/SkillUpgrade.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CA116-50A0-4F33-951E-E11BA62C2C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" r:id="rId1"/>
+    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="SkillUpgradeTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectValue1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,26 +113,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeedControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackDamageControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RangeControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSpeedControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,87 +145,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직선 투사체 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사선 투사체 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}의 주문력을 {1}% 강화합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0} 스킬이 몬스터를 한 명 더 관통할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 사거리가 {1} 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저격수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보충학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충만한마나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 주문이 더 커집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정면승부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 시전 속도를 {1}% 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 향해 {0}% 더 빠르게 날아갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원기옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackPassControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackScaleControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고속도로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흩뿌리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StraitAttackPlus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiagonalAttackPlus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__19.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G11" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G4" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
@@ -505,7 +421,7 @@
     <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Img" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -814,15 +730,15 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -844,13 +760,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -861,10 +777,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -875,10 +791,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -889,10 +805,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -903,10 +819,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -920,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -942,31 +858,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="2"/>
-    <col min="12" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="7" width="66.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -987,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -998,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1007,194 +919,54 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K15" s="3"/>
+      <c r="F4" s="2">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
